--- a/treemap.xlsx
+++ b/treemap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vumin\OneDrive\Desktop\FIT3179\Assignment 2\FIT3179-Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C7E9F9C-46C1-4410-8FC5-E6BA9903324B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143FBDC2-56E0-44DC-9BFD-F15C19DD265F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A369E965-004A-45A1-8B27-6BCBB8AE4C3A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -599,9 +599,6 @@
     <t>Confirmed</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>Asia</t>
   </si>
   <si>
@@ -621,6 +618,12 @@
   </si>
   <si>
     <t>World</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>parent</t>
   </si>
 </sst>
 </file>
@@ -972,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B55239D-91BB-4C04-83E3-ADA2874A8B19}">
-  <dimension ref="A1:C194"/>
+  <dimension ref="A1:D194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,2147 +987,2726 @@
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
         <v>187</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+      <c r="D1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>55630</v>
       </c>
-      <c r="C2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>8829</v>
       </c>
-      <c r="C3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4">
         <v>2557</v>
       </c>
-      <c r="C4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5">
         <v>5923</v>
       </c>
-      <c r="C5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6">
         <v>2433</v>
       </c>
-      <c r="C6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7">
         <v>553</v>
       </c>
-      <c r="C7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="B8">
         <v>8198</v>
       </c>
-      <c r="C8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
       <c r="B9">
         <v>21570</v>
       </c>
-      <c r="C9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
       <c r="B10">
         <v>4862</v>
       </c>
-      <c r="C10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
       <c r="B11">
         <v>1423</v>
       </c>
-      <c r="C11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
       <c r="B12">
         <v>517</v>
       </c>
-      <c r="C12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
       <c r="B13">
         <v>5156</v>
       </c>
-      <c r="C13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
       <c r="B14">
         <v>11122</v>
       </c>
-      <c r="C14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
       <c r="B15">
         <v>20405</v>
       </c>
-      <c r="C15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
       <c r="B16">
         <v>5528</v>
       </c>
-      <c r="C16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>52</v>
       </c>
       <c r="B17">
         <v>106230</v>
       </c>
-      <c r="C17" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>54</v>
       </c>
       <c r="B18">
         <v>5074</v>
       </c>
-      <c r="C18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
       <c r="B19">
         <v>461</v>
       </c>
-      <c r="C19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
       <c r="B20">
         <v>5831</v>
       </c>
-      <c r="C20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
       <c r="B21">
         <v>92229</v>
       </c>
-      <c r="C21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
       <c r="B22">
         <v>8919</v>
       </c>
-      <c r="C22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>63</v>
       </c>
       <c r="B23">
         <v>3659</v>
       </c>
-      <c r="C23" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>66</v>
       </c>
       <c r="B24">
         <v>47601</v>
       </c>
-      <c r="C24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>70</v>
       </c>
       <c r="B25">
         <v>11635</v>
       </c>
-      <c r="C25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>71</v>
       </c>
       <c r="B26">
         <v>2403</v>
       </c>
-      <c r="C26" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>89</v>
       </c>
       <c r="B27">
         <v>47843</v>
       </c>
-      <c r="C27" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>97</v>
       </c>
       <c r="B28">
         <v>1934</v>
       </c>
-      <c r="C28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>98</v>
       </c>
       <c r="B29">
         <v>1393</v>
       </c>
-      <c r="C29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>99</v>
       </c>
       <c r="B30">
         <v>53384</v>
       </c>
-      <c r="C30" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>103</v>
       </c>
       <c r="B31">
         <v>16810</v>
       </c>
-      <c r="C31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>104</v>
       </c>
       <c r="B32">
         <v>5885</v>
       </c>
-      <c r="C32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>107</v>
       </c>
       <c r="B33">
         <v>3444</v>
       </c>
-      <c r="C33" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>109</v>
       </c>
       <c r="B34">
         <v>7662</v>
       </c>
-      <c r="C34" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>110</v>
       </c>
       <c r="B35">
         <v>435</v>
       </c>
-      <c r="C35" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>116</v>
       </c>
       <c r="B36">
         <v>190416</v>
       </c>
-      <c r="C36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>117</v>
       </c>
       <c r="B37">
         <v>11748</v>
       </c>
-      <c r="C37" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>118</v>
       </c>
       <c r="B38">
         <v>12501</v>
       </c>
-      <c r="C38" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>123</v>
       </c>
       <c r="B39">
         <v>1215</v>
       </c>
-      <c r="C39" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>124</v>
       </c>
       <c r="B40">
         <v>61882</v>
       </c>
-      <c r="C40" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>139</v>
       </c>
       <c r="B41">
         <v>5052</v>
       </c>
-      <c r="C41" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>144</v>
       </c>
       <c r="B42">
         <v>938</v>
       </c>
-      <c r="C42" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>146</v>
       </c>
       <c r="B43">
         <v>15525</v>
       </c>
-      <c r="C43" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>148</v>
       </c>
       <c r="B44">
         <v>153</v>
       </c>
-      <c r="C44" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>149</v>
       </c>
       <c r="B45">
         <v>2343</v>
       </c>
-      <c r="C45" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>154</v>
       </c>
       <c r="B46">
         <v>3897</v>
       </c>
-      <c r="C46" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>155</v>
       </c>
       <c r="B47">
         <v>712412</v>
       </c>
-      <c r="C47" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>156</v>
       </c>
       <c r="B48">
         <v>2876</v>
       </c>
-      <c r="C48" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>159</v>
       </c>
       <c r="B49">
         <v>13724</v>
       </c>
-      <c r="C49" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>166</v>
       </c>
       <c r="B50">
         <v>509</v>
       </c>
-      <c r="C50" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>169</v>
       </c>
       <c r="B51">
         <v>2162</v>
       </c>
-      <c r="C51" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>171</v>
       </c>
       <c r="B52">
         <v>47214</v>
       </c>
-      <c r="C52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>174</v>
       </c>
       <c r="B53">
         <v>11163</v>
       </c>
-      <c r="C53" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>183</v>
       </c>
       <c r="B54">
         <v>10</v>
       </c>
-      <c r="C54" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="D54">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>185</v>
       </c>
       <c r="B55">
         <v>16095</v>
       </c>
-      <c r="C55" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>186</v>
       </c>
       <c r="B56">
         <v>8257</v>
       </c>
-      <c r="C56" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>55</v>
+      </c>
+      <c r="D56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B57">
         <f>SUM(B2:B56)</f>
         <v>1697630</v>
       </c>
-      <c r="C57" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>56</v>
+      </c>
+      <c r="D57">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
       <c r="B58">
         <v>122</v>
       </c>
-      <c r="C58" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>57</v>
+      </c>
+      <c r="D58">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>6</v>
       </c>
       <c r="B59">
         <v>1069368</v>
       </c>
-      <c r="C59" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>58</v>
+      </c>
+      <c r="D59">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
       <c r="B60">
         <v>6268</v>
       </c>
-      <c r="C60" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>59</v>
+      </c>
+      <c r="D60">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>14</v>
       </c>
       <c r="B61">
         <v>226</v>
       </c>
-      <c r="C61" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="D61">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>17</v>
       </c>
       <c r="B62">
         <v>3050</v>
       </c>
-      <c r="C62" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>61</v>
+      </c>
+      <c r="D62">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>20</v>
       </c>
       <c r="B63">
         <v>140612</v>
       </c>
-      <c r="C63" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>62</v>
+      </c>
+      <c r="D63">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>23</v>
       </c>
       <c r="B64">
         <v>5353656</v>
       </c>
-      <c r="C64" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>63</v>
+      </c>
+      <c r="D64">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>32</v>
       </c>
       <c r="B65">
         <v>214519</v>
       </c>
-      <c r="C65" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>64</v>
+      </c>
+      <c r="D65">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>35</v>
       </c>
       <c r="B66">
         <v>498906</v>
       </c>
-      <c r="C66" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>65</v>
+      </c>
+      <c r="D66">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>37</v>
       </c>
       <c r="B67">
         <v>998942</v>
       </c>
-      <c r="C67" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>66</v>
+      </c>
+      <c r="D67">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>41</v>
       </c>
       <c r="B68">
         <v>101826</v>
       </c>
-      <c r="C68" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>67</v>
+      </c>
+      <c r="D68">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>44</v>
       </c>
       <c r="B69">
         <v>6479</v>
       </c>
-      <c r="C69" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>68</v>
+      </c>
+      <c r="D69">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>49</v>
       </c>
       <c r="B70">
         <v>37</v>
       </c>
-      <c r="C70" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>69</v>
+      </c>
+      <c r="D70">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>50</v>
       </c>
       <c r="B71">
         <v>122873</v>
       </c>
-      <c r="C71" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>70</v>
+      </c>
+      <c r="D71">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>51</v>
       </c>
       <c r="B72">
         <v>158270</v>
       </c>
-      <c r="C72" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>71</v>
+      </c>
+      <c r="D72">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>53</v>
       </c>
       <c r="B73">
         <v>32421</v>
       </c>
-      <c r="C73" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>72</v>
+      </c>
+      <c r="D73">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>68</v>
       </c>
       <c r="B74">
         <v>27</v>
       </c>
-      <c r="C74" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>73</v>
+      </c>
+      <c r="D74">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>69</v>
       </c>
       <c r="B75">
         <v>103902</v>
       </c>
-      <c r="C75" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>74</v>
+      </c>
+      <c r="D75">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>72</v>
       </c>
       <c r="B76">
         <v>3960</v>
       </c>
-      <c r="C76" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>75</v>
+      </c>
+      <c r="D76">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>73</v>
       </c>
       <c r="B77">
         <v>9015</v>
       </c>
-      <c r="C77" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>76</v>
+      </c>
+      <c r="D77">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
       <c r="B78">
         <v>91509</v>
       </c>
-      <c r="C78" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>77</v>
+      </c>
+      <c r="D78">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
       <c r="B79">
         <v>8638</v>
       </c>
-      <c r="C79" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>78</v>
+      </c>
+      <c r="D79">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>111</v>
       </c>
       <c r="B80">
         <v>880775</v>
       </c>
-      <c r="C80" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>79</v>
+      </c>
+      <c r="D80">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>122</v>
       </c>
       <c r="B81">
         <v>5434</v>
       </c>
-      <c r="C81" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>80</v>
+      </c>
+      <c r="D81">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>129</v>
       </c>
       <c r="B82">
         <v>127866</v>
       </c>
-      <c r="C82" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>81</v>
+      </c>
+      <c r="D82">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>131</v>
       </c>
       <c r="B83">
         <v>58259</v>
       </c>
-      <c r="C83" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>82</v>
+      </c>
+      <c r="D83">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>132</v>
       </c>
       <c r="B84">
         <v>879876</v>
       </c>
-      <c r="C84" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>83</v>
+      </c>
+      <c r="D84">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>140</v>
       </c>
       <c r="B85">
         <v>19</v>
       </c>
-      <c r="C85" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>84</v>
+      </c>
+      <c r="D85">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>141</v>
       </c>
       <c r="B86">
         <v>48</v>
       </c>
-      <c r="C86" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>85</v>
+      </c>
+      <c r="D86">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>142</v>
       </c>
       <c r="B87">
         <v>73</v>
       </c>
-      <c r="C87" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>86</v>
+      </c>
+      <c r="D87">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>160</v>
       </c>
       <c r="B88">
         <v>5155</v>
       </c>
-      <c r="C88" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>87</v>
+      </c>
+      <c r="D88">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>170</v>
       </c>
       <c r="B89">
         <v>5487</v>
       </c>
-      <c r="C89" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>88</v>
+      </c>
+      <c r="D89">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>173</v>
       </c>
       <c r="B90">
         <v>8491459</v>
       </c>
-      <c r="C90" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>89</v>
+      </c>
+      <c r="D90">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>178</v>
       </c>
       <c r="B91">
         <v>2759</v>
       </c>
-      <c r="C91" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>90</v>
+      </c>
+      <c r="D91">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>180</v>
       </c>
       <c r="B92">
         <v>88718</v>
       </c>
-      <c r="C92" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>91</v>
+      </c>
+      <c r="D92">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B93">
         <f>SUM(B2:B92)</f>
         <v>22865814</v>
       </c>
-      <c r="C93" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>92</v>
+      </c>
+      <c r="D93">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>0</v>
       </c>
       <c r="B94">
         <v>40687</v>
       </c>
-      <c r="C94" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>93</v>
+      </c>
+      <c r="D94">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>7</v>
       </c>
       <c r="B95">
         <v>73310</v>
       </c>
-      <c r="C95" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>94</v>
+      </c>
+      <c r="D95">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>10</v>
       </c>
       <c r="B96">
         <v>48221</v>
       </c>
-      <c r="C96" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>95</v>
+      </c>
+      <c r="D96">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>12</v>
       </c>
       <c r="B97">
         <v>79574</v>
       </c>
-      <c r="C97" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>96</v>
+      </c>
+      <c r="D97">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>13</v>
       </c>
       <c r="B98">
         <v>396413</v>
       </c>
-      <c r="C98" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>97</v>
+      </c>
+      <c r="D98">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>19</v>
       </c>
       <c r="B99">
         <v>336</v>
       </c>
-      <c r="C99" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>98</v>
+      </c>
+      <c r="D99">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>24</v>
       </c>
       <c r="B100">
         <v>148</v>
       </c>
-      <c r="C100" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>99</v>
+      </c>
+      <c r="D100">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>27</v>
       </c>
       <c r="B101">
         <v>42365</v>
       </c>
-      <c r="C101" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>100</v>
+      </c>
+      <c r="D101">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>30</v>
       </c>
       <c r="B102">
         <v>287</v>
       </c>
-      <c r="C102" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <v>101</v>
+      </c>
+      <c r="D102">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>36</v>
       </c>
       <c r="B103">
         <v>91108</v>
       </c>
-      <c r="C103" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <v>102</v>
+      </c>
+      <c r="D103">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>45</v>
       </c>
       <c r="B104">
         <v>3314</v>
       </c>
-      <c r="C104" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C104">
+        <v>103</v>
+      </c>
+      <c r="D104">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>64</v>
       </c>
       <c r="B105">
         <v>24562</v>
       </c>
-      <c r="C105" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C105">
+        <v>104</v>
+      </c>
+      <c r="D105">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>78</v>
       </c>
       <c r="B106">
         <v>7814682</v>
       </c>
-      <c r="C106" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>105</v>
+      </c>
+      <c r="D106">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>79</v>
       </c>
       <c r="B107">
         <v>381910</v>
       </c>
-      <c r="C107" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <v>106</v>
+      </c>
+      <c r="D107">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>80</v>
       </c>
       <c r="B108">
         <v>556891</v>
       </c>
-      <c r="C108" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C108">
+        <v>107</v>
+      </c>
+      <c r="D108">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>81</v>
       </c>
       <c r="B109">
         <v>445949</v>
       </c>
-      <c r="C109" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <v>108</v>
+      </c>
+      <c r="D109">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>83</v>
       </c>
       <c r="B110">
         <v>308840</v>
       </c>
-      <c r="C110" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C110">
+        <v>109</v>
+      </c>
+      <c r="D110">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>86</v>
       </c>
       <c r="B111">
         <v>95868</v>
       </c>
-      <c r="C111" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C111">
+        <v>110</v>
+      </c>
+      <c r="D111">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>87</v>
       </c>
       <c r="B112">
         <v>48930</v>
       </c>
-      <c r="C112" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C112">
+        <v>111</v>
+      </c>
+      <c r="D112">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>88</v>
       </c>
       <c r="B113">
         <v>110250</v>
       </c>
-      <c r="C113" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C113">
+        <v>112</v>
+      </c>
+      <c r="D113">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>90</v>
       </c>
       <c r="B114">
         <v>25775</v>
       </c>
-      <c r="C114" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C114">
+        <v>113</v>
+      </c>
+      <c r="D114">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>92</v>
       </c>
       <c r="B115">
         <v>120232</v>
       </c>
-      <c r="C115" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C115">
+        <v>114</v>
+      </c>
+      <c r="D115">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>93</v>
       </c>
       <c r="B116">
         <v>54588</v>
       </c>
-      <c r="C116" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C116">
+        <v>115</v>
+      </c>
+      <c r="D116">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>94</v>
       </c>
       <c r="B117">
         <v>24</v>
       </c>
-      <c r="C117" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C117">
+        <v>116</v>
+      </c>
+      <c r="D117">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>96</v>
       </c>
       <c r="B118">
         <v>68479</v>
       </c>
-      <c r="C118" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C118">
+        <v>117</v>
+      </c>
+      <c r="D118">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>105</v>
       </c>
       <c r="B119">
         <v>24514</v>
       </c>
-      <c r="C119" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C119">
+        <v>118</v>
+      </c>
+      <c r="D119">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>106</v>
       </c>
       <c r="B120">
         <v>11391</v>
       </c>
-      <c r="C120" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C120">
+        <v>119</v>
+      </c>
+      <c r="D120">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>114</v>
       </c>
       <c r="B121">
         <v>328</v>
       </c>
-      <c r="C121" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C121">
+        <v>120</v>
+      </c>
+      <c r="D121">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>119</v>
       </c>
       <c r="B122">
         <v>153008</v>
       </c>
-      <c r="C122" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C122">
+        <v>121</v>
+      </c>
+      <c r="D122">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>127</v>
       </c>
       <c r="B123">
         <v>111837</v>
       </c>
-      <c r="C123" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C123">
+        <v>122</v>
+      </c>
+      <c r="D123">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>128</v>
       </c>
       <c r="B124">
         <v>327063</v>
       </c>
-      <c r="C124" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C124">
+        <v>123</v>
+      </c>
+      <c r="D124">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>133</v>
       </c>
       <c r="B125">
         <v>365799</v>
       </c>
-      <c r="C125" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C125">
+        <v>124</v>
+      </c>
+      <c r="D125">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>136</v>
       </c>
       <c r="B126">
         <v>130711</v>
       </c>
-      <c r="C126" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C126">
+        <v>125</v>
+      </c>
+      <c r="D126">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>145</v>
       </c>
       <c r="B127">
         <v>344157</v>
       </c>
-      <c r="C127" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C127">
+        <v>126</v>
+      </c>
+      <c r="D127">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>150</v>
       </c>
       <c r="B128">
         <v>57951</v>
       </c>
-      <c r="C128" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C128">
+        <v>127</v>
+      </c>
+      <c r="D128">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>158</v>
       </c>
       <c r="B129">
         <v>7153</v>
       </c>
-      <c r="C129" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C129">
+        <v>128</v>
+      </c>
+      <c r="D129">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>163</v>
       </c>
       <c r="B130">
         <v>5319</v>
       </c>
-      <c r="C130" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C130">
+        <v>129</v>
+      </c>
+      <c r="D130">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>164</v>
       </c>
       <c r="B131">
         <v>548</v>
       </c>
-      <c r="C131" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>130</v>
+      </c>
+      <c r="D131">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>165</v>
       </c>
       <c r="B132">
         <v>10695</v>
       </c>
-      <c r="C132" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C132">
+        <v>131</v>
+      </c>
+      <c r="D132">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>167</v>
       </c>
       <c r="B133">
         <v>3731</v>
       </c>
-      <c r="C133" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C133">
+        <v>132</v>
+      </c>
+      <c r="D133">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>168</v>
       </c>
       <c r="B134">
         <v>29</v>
       </c>
-      <c r="C134" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C134">
+        <v>133</v>
+      </c>
+      <c r="D134">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>172</v>
       </c>
       <c r="B135">
         <v>357693</v>
       </c>
-      <c r="C135" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C135">
+        <v>134</v>
+      </c>
+      <c r="D135">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>176</v>
       </c>
       <c r="B136">
         <v>122273</v>
       </c>
-      <c r="C136" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C136">
+        <v>135</v>
+      </c>
+      <c r="D136">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>179</v>
       </c>
       <c r="B137">
         <v>64724</v>
       </c>
-      <c r="C137" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C137">
+        <v>136</v>
+      </c>
+      <c r="D137">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>181</v>
       </c>
       <c r="B138">
         <v>1148</v>
       </c>
-      <c r="C138" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C138">
+        <v>137</v>
+      </c>
+      <c r="D138">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>182</v>
       </c>
       <c r="B139">
         <v>49579</v>
       </c>
-      <c r="C139" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C139">
+        <v>138</v>
+      </c>
+      <c r="D139">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>184</v>
       </c>
       <c r="B140">
         <v>2060</v>
       </c>
-      <c r="C140" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C140">
+        <v>139</v>
+      </c>
+      <c r="D140">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B141">
         <f>SUM(B94:B140)</f>
         <v>12984454</v>
       </c>
-      <c r="C141" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C141">
+        <v>140</v>
+      </c>
+      <c r="D141">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>1</v>
       </c>
       <c r="B142">
         <v>18556</v>
       </c>
-      <c r="C142" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C142">
+        <v>141</v>
+      </c>
+      <c r="D142">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>3</v>
       </c>
       <c r="B143">
         <v>4038</v>
       </c>
-      <c r="C143" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C143">
+        <v>142</v>
+      </c>
+      <c r="D143">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>9</v>
       </c>
       <c r="B144">
         <v>74415</v>
       </c>
-      <c r="C144" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C144">
+        <v>143</v>
+      </c>
+      <c r="D144">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>15</v>
       </c>
       <c r="B145">
         <v>91167</v>
       </c>
-      <c r="C145" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C145">
+        <v>144</v>
+      </c>
+      <c r="D145">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>16</v>
       </c>
       <c r="B146">
         <v>287700</v>
       </c>
-      <c r="C146" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C146">
+        <v>145</v>
+      </c>
+      <c r="D146">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>21</v>
       </c>
       <c r="B147">
         <v>38493</v>
       </c>
-      <c r="C147" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C147">
+        <v>146</v>
+      </c>
+      <c r="D147">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>25</v>
       </c>
       <c r="B148">
         <v>36519</v>
       </c>
-      <c r="C148" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C148">
+        <v>147</v>
+      </c>
+      <c r="D148">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>43</v>
       </c>
       <c r="B149">
         <v>31717</v>
       </c>
-      <c r="C149" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C149">
+        <v>148</v>
+      </c>
+      <c r="D149">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>46</v>
       </c>
       <c r="B150">
         <v>238323</v>
       </c>
-      <c r="C150" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C150">
+        <v>149</v>
+      </c>
+      <c r="D150">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>47</v>
       </c>
       <c r="B151">
         <v>38622</v>
       </c>
-      <c r="C151" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C151">
+        <v>150</v>
+      </c>
+      <c r="D151">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>56</v>
       </c>
       <c r="B152">
         <v>4300</v>
       </c>
-      <c r="C152" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C152">
+        <v>151</v>
+      </c>
+      <c r="D152">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>60</v>
       </c>
       <c r="B153">
         <v>14474</v>
       </c>
-      <c r="C153" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C153">
+        <v>152</v>
+      </c>
+      <c r="D153">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>61</v>
       </c>
       <c r="B154">
         <v>1048842</v>
       </c>
-      <c r="C154" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C154">
+        <v>153</v>
+      </c>
+      <c r="D154">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>65</v>
       </c>
       <c r="B155">
         <v>426110</v>
       </c>
-      <c r="C155" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C155">
+        <v>154</v>
+      </c>
+      <c r="D155">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>67</v>
       </c>
       <c r="B156">
         <v>29057</v>
       </c>
-      <c r="C156" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C156">
+        <v>155</v>
+      </c>
+      <c r="D156">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>74</v>
       </c>
       <c r="B157">
         <v>27</v>
       </c>
-      <c r="C157" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C157">
+        <v>156</v>
+      </c>
+      <c r="D157">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>76</v>
       </c>
       <c r="B158">
         <v>54278</v>
       </c>
-      <c r="C158" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C158">
+        <v>157</v>
+      </c>
+      <c r="D158">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>77</v>
       </c>
       <c r="B159">
         <v>4308</v>
       </c>
-      <c r="C159" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C159">
+        <v>158</v>
+      </c>
+      <c r="D159">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>82</v>
       </c>
       <c r="B160">
         <v>55261</v>
       </c>
-      <c r="C160" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C160">
+        <v>159</v>
+      </c>
+      <c r="D160">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>84</v>
       </c>
       <c r="B161">
         <v>484869</v>
       </c>
-      <c r="C161" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C161">
+        <v>160</v>
+      </c>
+      <c r="D161">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>91</v>
       </c>
       <c r="B162">
         <v>17263</v>
       </c>
-      <c r="C162" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C162">
+        <v>161</v>
+      </c>
+      <c r="D162">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>95</v>
       </c>
       <c r="B163">
         <v>4208</v>
       </c>
-      <c r="C163" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C163">
+        <v>162</v>
+      </c>
+      <c r="D163">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>100</v>
       </c>
       <c r="B164">
         <v>324</v>
       </c>
-      <c r="C164" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C164">
+        <v>163</v>
+      </c>
+      <c r="D164">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>101</v>
       </c>
       <c r="B165">
         <v>9104</v>
       </c>
-      <c r="C165" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C165">
+        <v>164</v>
+      </c>
+      <c r="D165">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>102</v>
       </c>
       <c r="B166">
         <v>12851</v>
       </c>
-      <c r="C166" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C166">
+        <v>165</v>
+      </c>
+      <c r="D166">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>108</v>
       </c>
       <c r="B167">
         <v>5258</v>
       </c>
-      <c r="C167" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C167">
+        <v>166</v>
+      </c>
+      <c r="D167">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>112</v>
       </c>
       <c r="B168">
         <v>70256</v>
       </c>
-      <c r="C168" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C168">
+        <v>167</v>
+      </c>
+      <c r="D168">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>113</v>
       </c>
       <c r="B169">
         <v>295</v>
       </c>
-      <c r="C169" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C169">
+        <v>168</v>
+      </c>
+      <c r="D169">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>115</v>
       </c>
       <c r="B170">
         <v>16436</v>
       </c>
-      <c r="C170" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C170">
+        <v>169</v>
+      </c>
+      <c r="D170">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>120</v>
       </c>
       <c r="B171">
         <v>272401</v>
       </c>
-      <c r="C171" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C171">
+        <v>170</v>
+      </c>
+      <c r="D171">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>125</v>
       </c>
       <c r="B172">
         <v>25991</v>
       </c>
-      <c r="C172" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C172">
+        <v>171</v>
+      </c>
+      <c r="D172">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>126</v>
       </c>
       <c r="B173">
         <v>17532</v>
       </c>
-      <c r="C173" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C173">
+        <v>172</v>
+      </c>
+      <c r="D173">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>134</v>
       </c>
       <c r="B174">
         <v>228318</v>
       </c>
-      <c r="C174" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C174">
+        <v>173</v>
+      </c>
+      <c r="D174">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>135</v>
       </c>
       <c r="B175">
         <v>112440</v>
       </c>
-      <c r="C175" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C175">
+        <v>174</v>
+      </c>
+      <c r="D175">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>137</v>
       </c>
       <c r="B176">
         <v>201032</v>
       </c>
-      <c r="C176" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C176">
+        <v>175</v>
+      </c>
+      <c r="D176">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>138</v>
       </c>
       <c r="B177">
         <v>1471000</v>
       </c>
-      <c r="C177" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C177">
+        <v>176</v>
+      </c>
+      <c r="D177">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>143</v>
       </c>
       <c r="B178">
         <v>819</v>
       </c>
-      <c r="C178" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C178">
+        <v>177</v>
+      </c>
+      <c r="D178">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>147</v>
       </c>
       <c r="B179">
         <v>38115</v>
       </c>
-      <c r="C179" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C179">
+        <v>178</v>
+      </c>
+      <c r="D179">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>151</v>
       </c>
       <c r="B180">
         <v>37911</v>
       </c>
-      <c r="C180" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C180">
+        <v>179</v>
+      </c>
+      <c r="D180">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>152</v>
       </c>
       <c r="B181">
         <v>19307</v>
       </c>
-      <c r="C181" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C181">
+        <v>180</v>
+      </c>
+      <c r="D181">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>157</v>
       </c>
       <c r="B182">
         <v>1046132</v>
       </c>
-      <c r="C182" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C182">
+        <v>181</v>
+      </c>
+      <c r="D182">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>161</v>
       </c>
       <c r="B183">
         <v>110594</v>
       </c>
-      <c r="C183" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C183">
+        <v>182</v>
+      </c>
+      <c r="D183">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>162</v>
       </c>
       <c r="B184">
         <v>103653</v>
       </c>
-      <c r="C184" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C184">
+        <v>183</v>
+      </c>
+      <c r="D184">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>175</v>
       </c>
       <c r="B185">
         <v>340042</v>
       </c>
-      <c r="C185" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C185">
+        <v>184</v>
+      </c>
+      <c r="D185">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>177</v>
       </c>
       <c r="B186">
         <v>830998</v>
       </c>
-      <c r="C186" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C186">
+        <v>185</v>
+      </c>
+      <c r="D186">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B187">
         <f>SUM(B142:B186)</f>
         <v>7973356</v>
       </c>
-      <c r="C187" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C187">
+        <v>186</v>
+      </c>
+      <c r="D187">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>8</v>
       </c>
       <c r="B188">
         <v>27495</v>
       </c>
-      <c r="C188" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C188">
+        <v>187</v>
+      </c>
+      <c r="D188">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>59</v>
       </c>
       <c r="B189">
         <v>33</v>
       </c>
-      <c r="C189" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C189">
+        <v>188</v>
+      </c>
+      <c r="D189">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>121</v>
       </c>
       <c r="B190">
         <v>1934</v>
       </c>
-      <c r="C190" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C190">
+        <v>189</v>
+      </c>
+      <c r="D190">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>130</v>
       </c>
       <c r="B191">
         <v>583</v>
       </c>
-      <c r="C191" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C191">
+        <v>190</v>
+      </c>
+      <c r="D191">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>153</v>
       </c>
       <c r="B192">
         <v>4</v>
       </c>
-      <c r="C192" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C192">
+        <v>191</v>
+      </c>
+      <c r="D192">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B193">
         <f>SUM(B188:B192)</f>
         <v>30049</v>
       </c>
-      <c r="C193" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C193">
+        <v>192</v>
+      </c>
+      <c r="D193">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194">
         <f>SUM(B187,B141,B93,B57,B193)</f>
         <v>45551303</v>
       </c>
+      <c r="C194">
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D274">
-    <sortCondition ref="C2:C274"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/treemap.xlsx
+++ b/treemap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vumin\OneDrive\Desktop\FIT3179\Assignment 2\FIT3179-Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143FBDC2-56E0-44DC-9BFD-F15C19DD265F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED48334-9AA9-4028-8251-48BEB6599BFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A369E965-004A-45A1-8B27-6BCBB8AE4C3A}"/>
   </bookViews>
@@ -33,15 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>Afghanistan</t>
   </si>
   <si>
     <t>Albania</t>
-  </si>
-  <si>
-    <t>Algeria</t>
   </si>
   <si>
     <t>Andorra</t>
@@ -975,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B55239D-91BB-4C04-83E3-ADA2874A8B19}">
-  <dimension ref="A1:D194"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="F191" sqref="F191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -989,2721 +986,2707 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
         <v>195</v>
-      </c>
-      <c r="D1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="B2">
-        <v>55630</v>
+        <f ca="1">SUM(B6,B5,B3,B4,B7)</f>
+        <v>45551303</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>56</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="B3">
-        <v>8829</v>
+        <f ca="1">SUM(B3:B96)</f>
+        <v>22865814</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="B4">
-        <v>2557</v>
+        <f ca="1">SUM(B3:B61)</f>
+        <v>1697630</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="B5">
-        <v>5923</v>
+        <f>SUM(B97:B143)</f>
+        <v>12984454</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="B6">
-        <v>2433</v>
+        <f>SUM(B144:B188)</f>
+        <v>7973356</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="B7">
-        <v>553</v>
+        <f>SUM(B189:B193)</f>
+        <v>30049</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>8198</v>
+        <v>8829</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>21570</v>
+        <v>2557</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B10">
-        <v>4862</v>
+        <v>5923</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>1423</v>
+        <v>2433</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B12">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>5156</v>
+        <v>8198</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>11122</v>
+        <v>21570</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B15">
-        <v>20405</v>
+        <v>4862</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B16">
-        <v>5528</v>
+        <v>1423</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B17">
-        <v>106230</v>
+        <v>517</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B18">
-        <v>5074</v>
+        <v>5156</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B19">
-        <v>461</v>
+        <v>11122</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B20">
-        <v>5831</v>
+        <v>20405</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B21">
-        <v>92229</v>
+        <v>5528</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B22">
-        <v>8919</v>
+        <v>106230</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B23">
-        <v>3659</v>
+        <v>5074</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B24">
-        <v>47601</v>
+        <v>461</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B25">
-        <v>11635</v>
+        <v>5831</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B26">
-        <v>2403</v>
+        <v>92229</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B27">
-        <v>47843</v>
+        <v>8919</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B28">
-        <v>1934</v>
+        <v>3659</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B29">
-        <v>1393</v>
+        <v>47601</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B30">
-        <v>53384</v>
+        <v>11635</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="B31">
-        <v>16810</v>
+        <v>2403</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B32">
-        <v>5885</v>
+        <v>47843</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B33">
-        <v>3444</v>
+        <v>1934</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B34">
-        <v>7662</v>
+        <v>1393</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B35">
-        <v>435</v>
+        <v>53384</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B36">
-        <v>190416</v>
+        <v>16810</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B37">
-        <v>11748</v>
+        <v>5885</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B38">
-        <v>12501</v>
+        <v>3444</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B39">
-        <v>1215</v>
+        <v>7662</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B40">
-        <v>61882</v>
+        <v>435</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B41">
-        <v>5052</v>
+        <v>190416</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="B42">
-        <v>938</v>
+        <v>11748</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B43">
-        <v>15525</v>
+        <v>12501</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B44">
-        <v>153</v>
+        <v>1215</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B45">
-        <v>2343</v>
+        <v>61882</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B46">
-        <v>3897</v>
+        <v>5052</v>
       </c>
       <c r="C46">
         <v>45</v>
       </c>
       <c r="D46">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B47">
-        <v>712412</v>
+        <v>938</v>
       </c>
       <c r="C47">
         <v>46</v>
       </c>
       <c r="D47">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B48">
-        <v>2876</v>
+        <v>15525</v>
       </c>
       <c r="C48">
         <v>47</v>
       </c>
       <c r="D48">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B49">
-        <v>13724</v>
+        <v>153</v>
       </c>
       <c r="C49">
         <v>48</v>
       </c>
       <c r="D49">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B50">
-        <v>509</v>
+        <v>2343</v>
       </c>
       <c r="C50">
         <v>49</v>
       </c>
       <c r="D50">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B51">
-        <v>2162</v>
+        <v>3897</v>
       </c>
       <c r="C51">
         <v>50</v>
       </c>
       <c r="D51">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B52">
-        <v>47214</v>
+        <v>712412</v>
       </c>
       <c r="C52">
         <v>51</v>
       </c>
       <c r="D52">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B53">
-        <v>11163</v>
+        <v>2876</v>
       </c>
       <c r="C53">
         <v>52</v>
       </c>
       <c r="D53">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>13724</v>
       </c>
       <c r="C54">
         <v>53</v>
       </c>
       <c r="D54">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="B55">
-        <v>16095</v>
+        <v>509</v>
       </c>
       <c r="C55">
         <v>54</v>
       </c>
       <c r="D55">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B56">
-        <v>8257</v>
+        <v>2162</v>
       </c>
       <c r="C56">
         <v>55</v>
       </c>
       <c r="D56">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B57">
-        <f>SUM(B2:B56)</f>
-        <v>1697630</v>
+        <v>47214</v>
       </c>
       <c r="C57">
         <v>56</v>
       </c>
       <c r="D57">
-        <v>193</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="B58">
-        <v>122</v>
+        <v>11163</v>
       </c>
       <c r="C58">
         <v>57</v>
       </c>
       <c r="D58">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>182</v>
       </c>
       <c r="B59">
-        <v>1069368</v>
+        <v>10</v>
       </c>
       <c r="C59">
         <v>58</v>
       </c>
       <c r="D59">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="B60">
-        <v>6268</v>
+        <v>16095</v>
       </c>
       <c r="C60">
         <v>59</v>
       </c>
       <c r="D60">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="B61">
-        <v>226</v>
+        <v>8257</v>
       </c>
       <c r="C61">
         <v>60</v>
       </c>
       <c r="D61">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B62">
-        <v>3050</v>
+        <v>122</v>
       </c>
       <c r="C62">
         <v>61</v>
       </c>
       <c r="D62">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B63">
-        <v>140612</v>
+        <v>1069368</v>
       </c>
       <c r="C63">
         <v>62</v>
       </c>
       <c r="D63">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B64">
-        <v>5353656</v>
+        <v>6268</v>
       </c>
       <c r="C64">
         <v>63</v>
       </c>
       <c r="D64">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B65">
-        <v>214519</v>
+        <v>226</v>
       </c>
       <c r="C65">
         <v>64</v>
       </c>
       <c r="D65">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B66">
-        <v>498906</v>
+        <v>3050</v>
       </c>
       <c r="C66">
         <v>65</v>
       </c>
       <c r="D66">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B67">
-        <v>998942</v>
+        <v>140612</v>
       </c>
       <c r="C67">
         <v>66</v>
       </c>
       <c r="D67">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B68">
-        <v>101826</v>
+        <v>5353656</v>
       </c>
       <c r="C68">
         <v>67</v>
       </c>
       <c r="D68">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B69">
-        <v>6479</v>
+        <v>214519</v>
       </c>
       <c r="C69">
         <v>68</v>
       </c>
       <c r="D69">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B70">
-        <v>37</v>
+        <v>498906</v>
       </c>
       <c r="C70">
         <v>69</v>
       </c>
       <c r="D70">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B71">
-        <v>122873</v>
+        <v>998942</v>
       </c>
       <c r="C71">
         <v>70</v>
       </c>
       <c r="D71">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B72">
-        <v>158270</v>
+        <v>101826</v>
       </c>
       <c r="C72">
         <v>71</v>
       </c>
       <c r="D72">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B73">
-        <v>32421</v>
+        <v>6479</v>
       </c>
       <c r="C73">
         <v>72</v>
       </c>
       <c r="D73">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B74">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C74">
         <v>73</v>
       </c>
       <c r="D74">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B75">
-        <v>103902</v>
+        <v>122873</v>
       </c>
       <c r="C75">
         <v>74</v>
       </c>
       <c r="D75">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B76">
-        <v>3960</v>
+        <v>158270</v>
       </c>
       <c r="C76">
         <v>75</v>
       </c>
       <c r="D76">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B77">
-        <v>9015</v>
+        <v>32421</v>
       </c>
       <c r="C77">
         <v>76</v>
       </c>
       <c r="D77">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B78">
-        <v>91509</v>
+        <v>27</v>
       </c>
       <c r="C78">
         <v>77</v>
       </c>
       <c r="D78">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B79">
-        <v>8638</v>
+        <v>103902</v>
       </c>
       <c r="C79">
         <v>78</v>
       </c>
       <c r="D79">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="B80">
-        <v>880775</v>
+        <v>3960</v>
       </c>
       <c r="C80">
         <v>79</v>
       </c>
       <c r="D80">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="B81">
-        <v>5434</v>
+        <v>9015</v>
       </c>
       <c r="C81">
         <v>80</v>
       </c>
       <c r="D81">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="B82">
-        <v>127866</v>
+        <v>91509</v>
       </c>
       <c r="C82">
         <v>81</v>
       </c>
       <c r="D82">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>58259</v>
+        <v>8638</v>
       </c>
       <c r="C83">
         <v>82</v>
       </c>
       <c r="D83">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B84">
-        <v>879876</v>
+        <v>880775</v>
       </c>
       <c r="C84">
         <v>83</v>
       </c>
       <c r="D84">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B85">
-        <v>19</v>
+        <v>5434</v>
       </c>
       <c r="C85">
         <v>84</v>
       </c>
       <c r="D85">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B86">
-        <v>48</v>
+        <v>127866</v>
       </c>
       <c r="C86">
         <v>85</v>
       </c>
       <c r="D86">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B87">
-        <v>73</v>
+        <v>58259</v>
       </c>
       <c r="C87">
         <v>86</v>
       </c>
       <c r="D87">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="B88">
-        <v>5155</v>
+        <v>879876</v>
       </c>
       <c r="C88">
         <v>87</v>
       </c>
       <c r="D88">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="B89">
-        <v>5487</v>
+        <v>19</v>
       </c>
       <c r="C89">
         <v>88</v>
       </c>
       <c r="D89">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="B90">
-        <v>8491459</v>
+        <v>48</v>
       </c>
       <c r="C90">
         <v>89</v>
       </c>
       <c r="D90">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="B91">
-        <v>2759</v>
+        <v>73</v>
       </c>
       <c r="C91">
         <v>90</v>
       </c>
       <c r="D91">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B92">
-        <v>88718</v>
+        <v>5155</v>
       </c>
       <c r="C92">
         <v>91</v>
       </c>
       <c r="D92">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B93">
-        <f>SUM(B2:B92)</f>
-        <v>22865814</v>
+        <v>5487</v>
       </c>
       <c r="C93">
         <v>92</v>
       </c>
       <c r="D93">
-        <v>193</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="B94">
-        <v>40687</v>
+        <v>8491459</v>
       </c>
       <c r="C94">
         <v>93</v>
       </c>
       <c r="D94">
-        <v>140</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="B95">
-        <v>73310</v>
+        <v>2759</v>
       </c>
       <c r="C95">
         <v>94</v>
       </c>
       <c r="D95">
-        <v>140</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="B96">
-        <v>48221</v>
+        <v>88718</v>
       </c>
       <c r="C96">
         <v>95</v>
       </c>
       <c r="D96">
-        <v>140</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B97">
-        <v>79574</v>
+        <v>40687</v>
       </c>
       <c r="C97">
         <v>96</v>
       </c>
       <c r="D97">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B98">
-        <v>396413</v>
+        <v>73310</v>
       </c>
       <c r="C98">
         <v>97</v>
       </c>
       <c r="D98">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B99">
-        <v>336</v>
+        <v>48221</v>
       </c>
       <c r="C99">
         <v>98</v>
       </c>
       <c r="D99">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B100">
-        <v>148</v>
+        <v>79574</v>
       </c>
       <c r="C100">
         <v>99</v>
       </c>
       <c r="D100">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B101">
-        <v>42365</v>
+        <v>396413</v>
       </c>
       <c r="C101">
         <v>100</v>
       </c>
       <c r="D101">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B102">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="C102">
         <v>101</v>
       </c>
       <c r="D102">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B103">
-        <v>91108</v>
+        <v>148</v>
       </c>
       <c r="C103">
         <v>102</v>
       </c>
       <c r="D103">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B104">
-        <v>3314</v>
+        <v>42365</v>
       </c>
       <c r="C104">
         <v>103</v>
       </c>
       <c r="D104">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B105">
-        <v>24562</v>
+        <v>287</v>
       </c>
       <c r="C105">
         <v>104</v>
       </c>
       <c r="D105">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="B106">
-        <v>7814682</v>
+        <v>91108</v>
       </c>
       <c r="C106">
         <v>105</v>
       </c>
       <c r="D106">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B107">
-        <v>381910</v>
+        <v>3314</v>
       </c>
       <c r="C107">
         <v>106</v>
       </c>
       <c r="D107">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B108">
-        <v>556891</v>
+        <v>24562</v>
       </c>
       <c r="C108">
         <v>107</v>
       </c>
       <c r="D108">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B109">
-        <v>445949</v>
+        <v>7814682</v>
       </c>
       <c r="C109">
         <v>108</v>
       </c>
       <c r="D109">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B110">
-        <v>308840</v>
+        <v>381910</v>
       </c>
       <c r="C110">
         <v>109</v>
       </c>
       <c r="D110">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B111">
-        <v>95868</v>
+        <v>556891</v>
       </c>
       <c r="C111">
         <v>110</v>
       </c>
       <c r="D111">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B112">
-        <v>48930</v>
+        <v>445949</v>
       </c>
       <c r="C112">
         <v>111</v>
       </c>
       <c r="D112">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B113">
-        <v>110250</v>
+        <v>308840</v>
       </c>
       <c r="C113">
         <v>112</v>
       </c>
       <c r="D113">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B114">
-        <v>25775</v>
+        <v>95868</v>
       </c>
       <c r="C114">
         <v>113</v>
       </c>
       <c r="D114">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B115">
-        <v>120232</v>
+        <v>48930</v>
       </c>
       <c r="C115">
         <v>114</v>
       </c>
       <c r="D115">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B116">
-        <v>54588</v>
+        <v>110250</v>
       </c>
       <c r="C116">
         <v>115</v>
       </c>
       <c r="D116">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B117">
-        <v>24</v>
+        <v>25775</v>
       </c>
       <c r="C117">
         <v>116</v>
       </c>
       <c r="D117">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B118">
-        <v>68479</v>
+        <v>120232</v>
       </c>
       <c r="C118">
         <v>117</v>
       </c>
       <c r="D118">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B119">
-        <v>24514</v>
+        <v>54588</v>
       </c>
       <c r="C119">
         <v>118</v>
       </c>
       <c r="D119">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B120">
-        <v>11391</v>
+        <v>24</v>
       </c>
       <c r="C120">
         <v>119</v>
       </c>
       <c r="D120">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B121">
-        <v>328</v>
+        <v>68479</v>
       </c>
       <c r="C121">
         <v>120</v>
       </c>
       <c r="D121">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B122">
-        <v>153008</v>
+        <v>24514</v>
       </c>
       <c r="C122">
         <v>121</v>
       </c>
       <c r="D122">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B123">
-        <v>111837</v>
+        <v>11391</v>
       </c>
       <c r="C123">
         <v>122</v>
       </c>
       <c r="D123">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B124">
-        <v>327063</v>
+        <v>328</v>
       </c>
       <c r="C124">
         <v>123</v>
       </c>
       <c r="D124">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B125">
-        <v>365799</v>
+        <v>153008</v>
       </c>
       <c r="C125">
         <v>124</v>
       </c>
       <c r="D125">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B126">
-        <v>130711</v>
+        <v>111837</v>
       </c>
       <c r="C126">
         <v>125</v>
       </c>
       <c r="D126">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B127">
-        <v>344157</v>
+        <v>327063</v>
       </c>
       <c r="C127">
         <v>126</v>
       </c>
       <c r="D127">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B128">
-        <v>57951</v>
+        <v>365799</v>
       </c>
       <c r="C128">
         <v>127</v>
       </c>
       <c r="D128">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="B129">
-        <v>7153</v>
+        <v>130711</v>
       </c>
       <c r="C129">
         <v>128</v>
       </c>
       <c r="D129">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B130">
-        <v>5319</v>
+        <v>344157</v>
       </c>
       <c r="C130">
         <v>129</v>
       </c>
       <c r="D130">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B131">
-        <v>548</v>
+        <v>57951</v>
       </c>
       <c r="C131">
         <v>130</v>
       </c>
       <c r="D131">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B132">
-        <v>10695</v>
+        <v>7153</v>
       </c>
       <c r="C132">
         <v>131</v>
       </c>
       <c r="D132">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B133">
-        <v>3731</v>
+        <v>5319</v>
       </c>
       <c r="C133">
         <v>132</v>
       </c>
       <c r="D133">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B134">
-        <v>29</v>
+        <v>548</v>
       </c>
       <c r="C134">
         <v>133</v>
       </c>
       <c r="D134">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B135">
-        <v>357693</v>
+        <v>10695</v>
       </c>
       <c r="C135">
         <v>134</v>
       </c>
       <c r="D135">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B136">
-        <v>122273</v>
+        <v>3731</v>
       </c>
       <c r="C136">
         <v>135</v>
       </c>
       <c r="D136">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B137">
-        <v>64724</v>
+        <v>29</v>
       </c>
       <c r="C137">
         <v>136</v>
       </c>
       <c r="D137">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B138">
-        <v>1148</v>
+        <v>357693</v>
       </c>
       <c r="C138">
         <v>137</v>
       </c>
       <c r="D138">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B139">
-        <v>49579</v>
+        <v>122273</v>
       </c>
       <c r="C139">
         <v>138</v>
       </c>
       <c r="D139">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B140">
-        <v>2060</v>
+        <v>64724</v>
       </c>
       <c r="C140">
         <v>139</v>
       </c>
       <c r="D140">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B141">
-        <f>SUM(B94:B140)</f>
-        <v>12984454</v>
+        <v>1148</v>
       </c>
       <c r="C141">
         <v>140</v>
       </c>
       <c r="D141">
-        <v>193</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="B142">
-        <v>18556</v>
+        <v>49579</v>
       </c>
       <c r="C142">
         <v>141</v>
       </c>
       <c r="D142">
-        <v>186</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="B143">
-        <v>4038</v>
+        <v>2060</v>
       </c>
       <c r="C143">
         <v>142</v>
       </c>
       <c r="D143">
-        <v>186</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B144">
-        <v>74415</v>
+        <v>18556</v>
       </c>
       <c r="C144">
         <v>143</v>
       </c>
       <c r="D144">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B145">
-        <v>91167</v>
+        <v>4038</v>
       </c>
       <c r="C145">
         <v>144</v>
       </c>
       <c r="D145">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B146">
-        <v>287700</v>
+        <v>74415</v>
       </c>
       <c r="C146">
         <v>145</v>
       </c>
       <c r="D146">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B147">
-        <v>38493</v>
+        <v>91167</v>
       </c>
       <c r="C147">
         <v>146</v>
       </c>
       <c r="D147">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B148">
-        <v>36519</v>
+        <v>287700</v>
       </c>
       <c r="C148">
         <v>147</v>
       </c>
       <c r="D148">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B149">
-        <v>31717</v>
+        <v>38493</v>
       </c>
       <c r="C149">
         <v>148</v>
       </c>
       <c r="D149">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B150">
-        <v>238323</v>
+        <v>36519</v>
       </c>
       <c r="C150">
         <v>149</v>
       </c>
       <c r="D150">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B151">
-        <v>38622</v>
+        <v>31717</v>
       </c>
       <c r="C151">
         <v>150</v>
       </c>
       <c r="D151">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B152">
-        <v>4300</v>
+        <v>238323</v>
       </c>
       <c r="C152">
         <v>151</v>
       </c>
       <c r="D152">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B153">
-        <v>14474</v>
+        <v>38622</v>
       </c>
       <c r="C153">
         <v>152</v>
       </c>
       <c r="D153">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B154">
-        <v>1048842</v>
+        <v>4300</v>
       </c>
       <c r="C154">
         <v>153</v>
       </c>
       <c r="D154">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B155">
-        <v>426110</v>
+        <v>14474</v>
       </c>
       <c r="C155">
         <v>154</v>
       </c>
       <c r="D155">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B156">
-        <v>29057</v>
+        <v>1048842</v>
       </c>
       <c r="C156">
         <v>155</v>
       </c>
       <c r="D156">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B157">
-        <v>27</v>
+        <v>426110</v>
       </c>
       <c r="C157">
         <v>156</v>
       </c>
       <c r="D157">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B158">
-        <v>54278</v>
+        <v>29057</v>
       </c>
       <c r="C158">
         <v>157</v>
       </c>
       <c r="D158">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B159">
-        <v>4308</v>
+        <v>27</v>
       </c>
       <c r="C159">
         <v>158</v>
       </c>
       <c r="D159">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B160">
-        <v>55261</v>
+        <v>54278</v>
       </c>
       <c r="C160">
         <v>159</v>
       </c>
       <c r="D160">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B161">
-        <v>484869</v>
+        <v>4308</v>
       </c>
       <c r="C161">
         <v>160</v>
       </c>
       <c r="D161">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B162">
-        <v>17263</v>
+        <v>55261</v>
       </c>
       <c r="C162">
         <v>161</v>
       </c>
       <c r="D162">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B163">
-        <v>4208</v>
+        <v>484869</v>
       </c>
       <c r="C163">
         <v>162</v>
       </c>
       <c r="D163">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B164">
-        <v>324</v>
+        <v>17263</v>
       </c>
       <c r="C164">
         <v>163</v>
       </c>
       <c r="D164">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B165">
-        <v>9104</v>
+        <v>4208</v>
       </c>
       <c r="C165">
         <v>164</v>
       </c>
       <c r="D165">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B166">
-        <v>12851</v>
+        <v>324</v>
       </c>
       <c r="C166">
         <v>165</v>
       </c>
       <c r="D166">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B167">
-        <v>5258</v>
+        <v>9104</v>
       </c>
       <c r="C167">
         <v>166</v>
       </c>
       <c r="D167">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B168">
-        <v>70256</v>
+        <v>12851</v>
       </c>
       <c r="C168">
         <v>167</v>
       </c>
       <c r="D168">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B169">
-        <v>295</v>
+        <v>5258</v>
       </c>
       <c r="C169">
         <v>168</v>
       </c>
       <c r="D169">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B170">
-        <v>16436</v>
+        <v>70256</v>
       </c>
       <c r="C170">
         <v>169</v>
       </c>
       <c r="D170">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B171">
-        <v>272401</v>
+        <v>295</v>
       </c>
       <c r="C171">
         <v>170</v>
       </c>
       <c r="D171">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B172">
-        <v>25991</v>
+        <v>16436</v>
       </c>
       <c r="C172">
         <v>171</v>
       </c>
       <c r="D172">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B173">
-        <v>17532</v>
+        <v>272401</v>
       </c>
       <c r="C173">
         <v>172</v>
       </c>
       <c r="D173">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B174">
-        <v>228318</v>
+        <v>25991</v>
       </c>
       <c r="C174">
         <v>173</v>
       </c>
       <c r="D174">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B175">
-        <v>112440</v>
+        <v>17532</v>
       </c>
       <c r="C175">
         <v>174</v>
       </c>
       <c r="D175">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B176">
-        <v>201032</v>
+        <v>228318</v>
       </c>
       <c r="C176">
         <v>175</v>
       </c>
       <c r="D176">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B177">
-        <v>1471000</v>
+        <v>112440</v>
       </c>
       <c r="C177">
         <v>176</v>
       </c>
       <c r="D177">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B178">
-        <v>819</v>
+        <v>201032</v>
       </c>
       <c r="C178">
         <v>177</v>
       </c>
       <c r="D178">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B179">
-        <v>38115</v>
+        <v>1471000</v>
       </c>
       <c r="C179">
         <v>178</v>
       </c>
       <c r="D179">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B180">
-        <v>37911</v>
+        <v>819</v>
       </c>
       <c r="C180">
         <v>179</v>
       </c>
       <c r="D180">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B181">
-        <v>19307</v>
+        <v>38115</v>
       </c>
       <c r="C181">
         <v>180</v>
       </c>
       <c r="D181">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B182">
-        <v>1046132</v>
+        <v>37911</v>
       </c>
       <c r="C182">
         <v>181</v>
       </c>
       <c r="D182">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B183">
-        <v>110594</v>
+        <v>19307</v>
       </c>
       <c r="C183">
         <v>182</v>
       </c>
       <c r="D183">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B184">
-        <v>103653</v>
+        <v>1046132</v>
       </c>
       <c r="C184">
         <v>183</v>
       </c>
       <c r="D184">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B185">
-        <v>340042</v>
+        <v>110594</v>
       </c>
       <c r="C185">
         <v>184</v>
       </c>
       <c r="D185">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B186">
-        <v>830998</v>
+        <v>103653</v>
       </c>
       <c r="C186">
         <v>185</v>
       </c>
       <c r="D186">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B187">
-        <f>SUM(B142:B186)</f>
-        <v>7973356</v>
+        <v>340042</v>
       </c>
       <c r="C187">
         <v>186</v>
       </c>
       <c r="D187">
-        <v>193</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="B188">
-        <v>27495</v>
+        <v>830998</v>
       </c>
       <c r="C188">
         <v>187</v>
       </c>
       <c r="D188">
-        <v>192</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B189">
-        <v>33</v>
+        <v>27495</v>
       </c>
       <c r="C189">
         <v>188</v>
       </c>
       <c r="D189">
-        <v>192</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="B190">
-        <v>1934</v>
+        <v>33</v>
       </c>
       <c r="C190">
         <v>189</v>
       </c>
       <c r="D190">
-        <v>192</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B191">
-        <v>583</v>
+        <v>1934</v>
       </c>
       <c r="C191">
         <v>190</v>
       </c>
       <c r="D191">
-        <v>192</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B192">
-        <v>4</v>
+        <v>583</v>
       </c>
       <c r="C192">
         <v>191</v>
       </c>
       <c r="D192">
-        <v>192</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="B193">
-        <f>SUM(B188:B192)</f>
-        <v>30049</v>
+        <v>4</v>
       </c>
       <c r="C193">
         <v>192</v>
       </c>
       <c r="D193">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>194</v>
-      </c>
-      <c r="B194">
-        <f>SUM(B187,B141,B93,B57,B193)</f>
-        <v>45551303</v>
-      </c>
-      <c r="C194">
-        <v>193</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
